--- a/Definitions/v-Definitions-VersionController.xlsx
+++ b/Definitions/v-Definitions-VersionController.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="SourceTree" sheetId="2" r:id="rId2"/>
+    <sheet name="Github" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Topics</t>
   </si>
@@ -42,13 +43,182 @@
   </si>
   <si>
     <t>GitExtensions</t>
+  </si>
+  <si>
+    <t>https://www.atlassian.com/git/tutorials/learn-git-with-bitbucket-cloud</t>
+  </si>
+  <si>
+    <t>Github tutorial from atlasian</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>command to clone a project</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/avinashbabudonthu/Remembral.git</t>
+  </si>
+  <si>
+    <t>To check the status of git</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>update the code</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>revert all the code changes</t>
+  </si>
+  <si>
+    <t>git reset --hard HEAD</t>
+  </si>
+  <si>
+    <t>making changed files ready to commit (moving them to stage)</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git add -A</t>
+  </si>
+  <si>
+    <t>make file1.txt to stage</t>
+  </si>
+  <si>
+    <t>git add /path/file1.txt</t>
+  </si>
+  <si>
+    <t>dot in above command means</t>
+  </si>
+  <si>
+    <t>add all files to stage</t>
+  </si>
+  <si>
+    <t>commit the changes to local repository</t>
+  </si>
+  <si>
+    <t>git commit -m "commit message"</t>
+  </si>
+  <si>
+    <t>push the changes to git repositories</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>this will ask for credentials, enter them</t>
+  </si>
+  <si>
+    <t>push the changes to git repository without entering credentials</t>
+  </si>
+  <si>
+    <t>git push origin --all</t>
+  </si>
+  <si>
+    <t>revert local git commits</t>
+  </si>
+  <si>
+    <t>git reset --hard origin/&lt;master/branch name&gt;</t>
+  </si>
+  <si>
+    <t>Create new repository using git cmd</t>
+  </si>
+  <si>
+    <t>1. Copen github.com -&gt; create new repository -&gt; Now we can see repo url -&gt; copy that
+2. open cmd -&gt; go to project location
+3. git init
+4. git add .
+5. git commit -m "commit message"
+6. git remote add origin &lt;repo url copied in step 1&gt;
+7. git push -u origin master</t>
+  </si>
+  <si>
+    <t>if file is deleted to check in that file</t>
+  </si>
+  <si>
+    <t>1. git add --all
+2. git commit -m "message"
+3. git push</t>
+  </si>
+  <si>
+    <t>Add gitignore, gitattributes files to existing repository</t>
+  </si>
+  <si>
+    <t>1. create 1.txt and 2.txt in the project repository directory
+2. open cmd -&gt; navigate to above location
+3. run this command -&gt; rename 1.txt .gitignore
+4. run this command -&gt; rename 2.txt .gitattributes
+5. copy the content from exiting .gitignore and .gitattributes files to above renamed files
+6. run this command -&gt; gir rm -r --cache *.class (like this run for the files we want to ignore)</t>
+  </si>
+  <si>
+    <t>check the branch</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>to see all branches</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>check the remote</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t>check the commit logs of a branch</t>
+  </si>
+  <si>
+    <t>git log [branch-name]</t>
+  </si>
+  <si>
+    <t>to cherry pick</t>
+  </si>
+  <si>
+    <t>git cherry-pick [commit-number]</t>
+  </si>
+  <si>
+    <t>after running this command, git will take that commit and apply to current branch</t>
+  </si>
+  <si>
+    <t>git fetch</t>
+  </si>
+  <si>
+    <t>Download objects and refs from another repository</t>
+  </si>
+  <si>
+    <t>create new branch and switch to it</t>
+  </si>
+  <si>
+    <t>git branch -b [branch-name]</t>
+  </si>
+  <si>
+    <t>merge current branch to another branch</t>
+  </si>
+  <si>
+    <t>from current branch&gt; git merge [target-branch-name]</t>
+  </si>
+  <si>
+    <t>switch to another branch named "new-branch"</t>
+  </si>
+  <si>
+    <t>git    checkout   new-branch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +258,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -203,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -273,6 +450,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -296,6 +475,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,7 +785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -619,7 +808,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>4</v>
       </c>
     </row>
@@ -647,6 +836,7 @@
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A6" location="SourceTree!A1" display="SourceTree"/>
+    <hyperlink ref="A3" location="Github!A1" display="Github"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -656,9 +846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,10 +866,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="29"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7"/>
@@ -702,8 +892,8 @@
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7"/>
@@ -726,8 +916,8 @@
       <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9"/>
@@ -834,35 +1024,35 @@
       <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="32"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="32"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="32"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="32"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="14"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="32"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="32"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="16"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="32"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="14"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="32"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:2">
@@ -882,8 +1072,8 @@
       <c r="B52" s="16"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="19"/>
@@ -918,8 +1108,8 @@
       <c r="B61" s="16"/>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="33"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="36"/>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="11"/>
@@ -1010,8 +1200,8 @@
       <c r="B84" s="14"/>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="33"/>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="9"/>
@@ -1066,11 +1256,11 @@
       <c r="B98" s="4"/>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="29"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="4"/>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="29"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="4"/>
     </row>
     <row r="101" spans="1:2">
@@ -1146,11 +1336,11 @@
       <c r="B118" s="4"/>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="28"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="28"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="4"/>
     </row>
   </sheetData>
@@ -1174,4 +1364,267 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="71" style="25" customWidth="1"/>
+    <col min="2" max="2" width="115.5703125" style="25" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="38"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="39"/>
+      <c r="B16" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="105">
+      <c r="A24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="45">
+      <c r="A25" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="90">
+      <c r="A26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A31:A32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B1" location="github!A2" display="Up"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/v-Definitions-VersionController.xlsx
+++ b/Definitions/v-Definitions-VersionController.xlsx
@@ -129,15 +129,6 @@
     <t>Create new repository using git cmd</t>
   </si>
   <si>
-    <t>1. Copen github.com -&gt; create new repository -&gt; Now we can see repo url -&gt; copy that
-2. open cmd -&gt; go to project location
-3. git init
-4. git add .
-5. git commit -m "commit message"
-6. git remote add origin &lt;repo url copied in step 1&gt;
-7. git push -u origin master</t>
-  </si>
-  <si>
     <t>if file is deleted to check in that file</t>
   </si>
   <si>
@@ -212,6 +203,16 @@
   </si>
   <si>
     <t>git    checkout   new-branch</t>
+  </si>
+  <si>
+    <t>1. Open github.com -&gt; create new repository -&gt; Now we can see repo url -&gt; copy that
+2. open cmd -&gt; go to project location
+3. git init
+4. git add .
+5. git commit -m "commit message"
+6. git remote add origin &lt;repo url copied in step 1&gt;
+7. git push -u origin master
+8. Enter credentials -&gt; Enter</t>
   </si>
 </sst>
 </file>
@@ -1371,8 +1372,8 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1510,106 +1511,106 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105">
+    <row r="24" spans="1:2" ht="120">
       <c r="A24" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="90">
       <c r="A26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="40"/>
       <c r="B32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/v-Definitions-VersionController.xlsx
+++ b/Definitions/v-Definitions-VersionController.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Topics</t>
   </si>
@@ -213,6 +213,15 @@
 6. git remote add origin &lt;repo url copied in step 1&gt;
 7. git push -u origin master
 8. Enter credentials -&gt; Enter</t>
+  </si>
+  <si>
+    <t>setup git global configurations</t>
+  </si>
+  <si>
+    <t>cmd&gt; git config --global user.name "username"
+cmd&gt; git config --global user.email "email-id@gmail.com"
+cmd&gt; git config --global core.autocrlf true
+cmd&gt; git config --global core.whitespace cr-at-eol</t>
   </si>
 </sst>
 </file>
@@ -1369,11 +1378,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1611,6 +1620,14 @@
       </c>
       <c r="B36" s="9" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
